--- a/fastqFiles/fastq_2477.xlsx
+++ b/fastqFiles/fastq_2477.xlsx
@@ -442,7 +442,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -475,7 +475,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -510,7 +510,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -547,7 +547,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -617,7 +617,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -652,7 +652,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -687,7 +687,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -722,7 +722,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -757,7 +757,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -792,7 +792,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -827,7 +827,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -862,7 +862,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -897,7 +897,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -932,7 +932,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -967,7 +967,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1004,7 +1004,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1109,7 +1109,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">

--- a/fastqFiles/fastq_2477.xlsx
+++ b/fastqFiles/fastq_2477.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="34">
   <si>
     <t xml:space="preserve">libraryDate</t>
   </si>
@@ -104,6 +104,9 @@
   </si>
   <si>
     <t xml:space="preserve">2477_Brent_16_CGGTGGC_S17_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[4]</t>
   </si>
   <si>
     <t xml:space="preserve">2477_Brent_17_ACTGTCG_S18_R1_001.fastq.gz</t>
@@ -219,12 +222,14 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T14" activeCellId="0" sqref="T14"/>
+      <selection pane="topLeft" activeCell="I18" activeCellId="0" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="1" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="43.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -578,8 +583,8 @@
       <c r="H17" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I17" s="0" t="n">
-        <v>4</v>
+      <c r="I17" s="0" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -599,7 +604,7 @@
         <v>11</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -619,7 +624,7 @@
         <v>11</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -639,7 +644,7 @@
         <v>11</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -659,7 +664,7 @@
         <v>11</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -679,7 +684,7 @@
         <v>11</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
